--- a/Data_Tahunan_SM_SYAMSIR_ALAM_1981_2020.xlsx
+++ b/Data_Tahunan_SM_SYAMSIR_ALAM_1981_2020.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DASHBOARD\DASHBOARD_KALSEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE6AEB7-B3CA-42F7-A971-0A6BD217AC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFDFBB-11BD-485A-B18B-6E20E344D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tahun</t>
   </si>
@@ -44,6 +53,9 @@
   </si>
   <si>
     <t>Tekanan</t>
+  </si>
+  <si>
+    <t>Tavg</t>
   </si>
 </sst>
 </file>
@@ -446,21 +458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,22 +483,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1981</v>
       </c>
@@ -497,22 +512,26 @@
         <v>31.05</v>
       </c>
       <c r="D2" s="2">
+        <f>(B2+C2)/2</f>
+        <v>26.844999999999999</v>
+      </c>
+      <c r="E2" s="2">
         <v>84.490410958904107</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>2587</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>4.5695890410958908</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>6.493150684931507</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>199.8356164383562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1982</v>
       </c>
@@ -523,22 +542,26 @@
         <v>31.12</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D3:D41" si="0">(B3+C3)/2</f>
+        <v>26.884999999999998</v>
+      </c>
+      <c r="E3" s="2">
         <v>82.835616438356169</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>4.6594520547945208</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>6.7726027397260271</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>198.027397260274</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1983</v>
       </c>
@@ -549,22 +572,26 @@
         <v>31.33</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
         <v>84.419178082191777</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3432</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>4.8854794520547946</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>6.4602739726027396</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>230.67961165048541</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1984</v>
       </c>
@@ -575,22 +602,26 @@
         <v>30.74</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="E5" s="2">
         <v>84.959016393442624</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4780</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>4.6928961748633879</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>6.3879781420765029</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>231.24590163934431</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1985</v>
       </c>
@@ -601,22 +632,26 @@
         <v>30.98</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>26.895</v>
+      </c>
+      <c r="E6" s="2">
         <v>83.93150684931507</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2164</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>5.2430136986301372</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>6.8520547945205479</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>215.9315068493151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1986</v>
       </c>
@@ -627,22 +662,26 @@
         <v>31.33</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="E7" s="2">
         <v>83.558904109589037</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1904</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>4.8002739726027386</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>6.7232876712328764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>208.38842975206609</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1987</v>
       </c>
@@ -653,22 +692,26 @@
         <v>31.49</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>26.85</v>
+      </c>
+      <c r="E8" s="2">
         <v>82.906849315068499</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2122</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5.247671232876713</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>7.0465753424657533</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>192.48626373626371</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1988</v>
       </c>
@@ -679,22 +722,26 @@
         <v>31.23</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>26.954999999999998</v>
+      </c>
+      <c r="E9" s="2">
         <v>84.535519125683066</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>241645</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>4.9644808743169397</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>6.8087431693989071</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>220.32786885245901</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1989</v>
       </c>
@@ -705,22 +752,26 @@
         <v>31.41</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>27.055</v>
+      </c>
+      <c r="E10" s="2">
         <v>83.246575342465746</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>233532</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>5.1621917808219182</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>6.0493150684931507</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>232.64383561643839</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1990</v>
       </c>
@@ -731,22 +782,26 @@
         <v>31.17</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>26.85</v>
+      </c>
+      <c r="E11" s="2">
         <v>83.449315068493149</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>29172</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>5.596712328767123</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>6.6164383561643838</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>206.50684931506851</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1991</v>
       </c>
@@ -757,22 +812,26 @@
         <v>30.97</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>27.145</v>
+      </c>
+      <c r="E12" s="2">
         <v>81.835616438356169</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>64976</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>5.1076712328767124</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>6.3205479452054796</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>208.35616438356161</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1992</v>
       </c>
@@ -783,22 +842,26 @@
         <v>30.96</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>26.965</v>
+      </c>
+      <c r="E13" s="2">
         <v>84.855191256830608</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3161</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>5.2483606557377049</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>6.7240437158469941</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>211.1917808219178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1993</v>
       </c>
@@ -809,22 +872,26 @@
         <v>31.83</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>27.049999999999997</v>
+      </c>
+      <c r="E14" s="2">
         <v>84.167123287671231</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>1309</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>5.2339726027397262</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>6.9260273972602739</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>207.61643835616439</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1994</v>
       </c>
@@ -835,22 +902,26 @@
         <v>31.81</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>27.68</v>
+      </c>
+      <c r="E15" s="2">
         <v>83.93150684931507</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>278169.59999999998</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>4.7616438356164386</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>6.7643835616438359</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>201.57534246575341</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1995</v>
       </c>
@@ -861,22 +932,26 @@
         <v>31.15</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>27.035</v>
+      </c>
+      <c r="E16" s="2">
         <v>86.93150684931507</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>2101.6999999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>4.7857534246575337</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>6.4027397260273968</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>200.8356164383562</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1996</v>
       </c>
@@ -887,22 +962,26 @@
         <v>31.1</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>27.270000000000003</v>
+      </c>
+      <c r="E17" s="2">
         <v>87.057377049180332</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>2965.8</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>4.7057377049180316</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>6.1147540983606561</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>207.90983606557381</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1997</v>
       </c>
@@ -913,22 +992,26 @@
         <v>31.39</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>27.380000000000003</v>
+      </c>
+      <c r="E18" s="2">
         <v>81.715068493150682</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>2115.1999999999998</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>4.5742465753424657</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>6.419178082191781</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>170.42465753424659</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1998</v>
       </c>
@@ -939,22 +1022,26 @@
         <v>31.75</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>27.47</v>
+      </c>
+      <c r="E19" s="2">
         <v>83.9972602739726</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>1994.1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>4.2723287671232884</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>6.0575342465753428</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>185.94520547945211</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1999</v>
       </c>
@@ -965,22 +1052,26 @@
         <v>31.41</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>27.4</v>
+      </c>
+      <c r="E20" s="2">
         <v>82.490410958904107</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>2349.9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>4.4490410958904114</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>6.5397260273972604</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>202.1917808219178</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2000</v>
       </c>
@@ -991,22 +1082,26 @@
         <v>31.41</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>27.234999999999999</v>
+      </c>
+      <c r="E21" s="2">
         <v>83.270491803278688</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>2460.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>4.5289617486338791</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>6.4043715846994536</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>207.04918032786881</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
@@ -1017,22 +1112,26 @@
         <v>31.5</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>27.48</v>
+      </c>
+      <c r="E22" s="2">
         <v>83.712328767123282</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>2179.8000000000002</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>4.1830136986301367</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>7.2630136986301368</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>206.63013698630141</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2002</v>
       </c>
@@ -1043,22 +1142,26 @@
         <v>31.73</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>27.484999999999999</v>
+      </c>
+      <c r="E23" s="2">
         <v>82.430136986301363</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>1999.3</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>4.6156164383561649</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>7.6630136986301371</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>189.61643835616439</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2003</v>
       </c>
@@ -1069,22 +1172,26 @@
         <v>31.23</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>27.450000000000003</v>
+      </c>
+      <c r="E24" s="2">
         <v>83.060273972602744</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>2973.1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>4.4027397260273968</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>7.7315068493150676</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>194.05479452054789</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2004</v>
       </c>
@@ -1095,22 +1202,26 @@
         <v>30.84</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>27.244999999999997</v>
+      </c>
+      <c r="E25" s="2">
         <v>82.521857923497265</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>2954.1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>4.4879781420765026</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>7.8032786885245899</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>193.03278688524591</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2005</v>
       </c>
@@ -1121,22 +1232,26 @@
         <v>32.03</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>27.740000000000002</v>
+      </c>
+      <c r="E26" s="2">
         <v>83.167123287671231</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>1852.9</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>4.4463687150837989</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>7.5835616438356164</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>199.6565934065934</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2006</v>
       </c>
@@ -1147,22 +1262,26 @@
         <v>31.44</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>27.32</v>
+      </c>
+      <c r="E27" s="2">
         <v>80.797260273972597</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>39296.6</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>4.4293956043956042</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>7.6785714285714288</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>189.44751381215471</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2007</v>
       </c>
@@ -1173,22 +1292,26 @@
         <v>31.51</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>27.335000000000001</v>
+      </c>
+      <c r="E28" s="2">
         <v>82.819178082191783</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>2102.3000000000002</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>4.2747945205479452</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>7.2657534246575342</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>195.74380165289261</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2008</v>
       </c>
@@ -1199,22 +1322,26 @@
         <v>31.37</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>27.450000000000003</v>
+      </c>
+      <c r="E29" s="2">
         <v>83.204918032786878</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>482129.2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>4.221311475409836</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>7.4617486338797816</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>195.86065573770489</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2009</v>
       </c>
@@ -1225,22 +1352,26 @@
         <v>31.67</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>27.855</v>
+      </c>
+      <c r="E30" s="2">
         <v>81.975342465753428</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>403043.5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>4.6230136986301371</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>7.2136986301369861</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>191.76164383561641</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2010</v>
       </c>
@@ -1251,22 +1382,26 @@
         <v>31.83</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>27.524999999999999</v>
+      </c>
+      <c r="E31" s="2">
         <v>84.534246575342465</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>535291.19999999995</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>4.1203296703296699</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>6.9534246575342467</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>204.2876712328767</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2011</v>
       </c>
@@ -1277,22 +1412,26 @@
         <v>32.130000000000003</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>27.775000000000002</v>
+      </c>
+      <c r="E32" s="2">
         <v>82</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>233382.39999999999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>4.2865384615384619</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>8.9972602739726035</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>207.61643835616439</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2012</v>
       </c>
@@ -1303,22 +1442,26 @@
         <v>32.090000000000003</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>28.340000000000003</v>
+      </c>
+      <c r="E33" s="2">
         <v>82.513661202185787</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>304471.40000000002</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>4.586612021857924</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>9.442622950819672</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>189.8360655737705</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2013</v>
       </c>
@@ -1329,22 +1472,26 @@
         <v>31.15</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>27.47</v>
+      </c>
+      <c r="E34" s="2">
         <v>84.704109589041096</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>242870.8</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>4.1780821917808222</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>9.1232876712328768</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>210.41095890410961</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2014</v>
       </c>
@@ -1355,22 +1502,26 @@
         <v>31.29</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>27.465</v>
+      </c>
+      <c r="E35" s="2">
         <v>81.646575342465752</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>242481.9</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>4.1593922651933699</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>8.9150684931506845</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>186.64383561643839</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2015</v>
       </c>
@@ -1381,22 +1532,26 @@
         <v>31.66</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>27.744999999999997</v>
+      </c>
+      <c r="E36" s="2">
         <v>79.241525423728817</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>179902.6</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>4.7153153153153147</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>5.2815126050420167</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>175.6008403361345</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2016</v>
       </c>
@@ -1407,22 +1562,26 @@
         <v>31.62</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>28.08</v>
+      </c>
+      <c r="E37" s="2">
         <v>83.686813186813183</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>279185.59999999998</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>5.0497093023255806</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>4.8241758241758239</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>196.92307692307691</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2017</v>
       </c>
@@ -1433,22 +1592,26 @@
         <v>31.61</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>27.97</v>
+      </c>
+      <c r="E38" s="2">
         <v>83.988700564971751</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>305358</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>4.9825714285714291</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>5.3176795580110499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>200.0552486187845</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2018</v>
       </c>
@@ -1459,22 +1622,26 @@
         <v>31.49</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>27.774999999999999</v>
+      </c>
+      <c r="E39" s="2">
         <v>83.07671232876713</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>384919.7</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>5.1784883720930237</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>5.4356164383561643</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>185.75616438356161</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2019</v>
       </c>
@@ -1485,22 +1652,26 @@
         <v>31.05</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>26.844999999999999</v>
+      </c>
+      <c r="E40" s="2">
         <v>80.74166666666666</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>2587</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>5.4830555555555556</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>5.5205479452054798</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>174.59452054794519</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2020</v>
       </c>
@@ -1511,18 +1682,22 @@
         <v>31.12</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>26.880000000000003</v>
+      </c>
+      <c r="E41" s="2">
         <v>83.453257790368269</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>4.6376068376068371</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>5.1218130311614729</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>198.35694050991501</v>
       </c>
     </row>

--- a/Data_Tahunan_SM_SYAMSIR_ALAM_1981_2020.xlsx
+++ b/Data_Tahunan_SM_SYAMSIR_ALAM_1981_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DASHBOARD\DASHBOARD_KALSEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFDFBB-11BD-485A-B18B-6E20E344D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D372226-3103-4DA2-B583-54A4E62E9807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,8 @@
         <v>82.835616438356169</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <f>(F2+F4)/2</f>
+        <v>3009.5</v>
       </c>
       <c r="G3" s="2">
         <v>4.6594520547945208</v>
@@ -1689,7 +1690,7 @@
         <v>83.453257790368269</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="G41" s="2">
         <v>4.6376068376068371</v>
